--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1275699870682362</v>
+        <v>0.1155809658704365</v>
       </c>
       <c r="C2">
-        <v>0.2949975552939468</v>
+        <v>0.390457646890028</v>
       </c>
       <c r="D2">
-        <v>0.150653331260784</v>
+        <v>0.3755683084142444</v>
       </c>
       <c r="E2">
-        <v>0.3881408652290866</v>
+        <v>0.612836281901002</v>
       </c>
       <c r="F2">
-        <v>0.3748164570332126</v>
+        <v>0.6153644530269748</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01521116492496113</v>
+        <v>0.6511545689434494</v>
       </c>
       <c r="C3">
-        <v>0.2722868036881911</v>
+        <v>0.8016979307476643</v>
       </c>
       <c r="D3">
-        <v>0.1278291975161459</v>
+        <v>4.674211074126436</v>
       </c>
       <c r="E3">
-        <v>0.3575320929876729</v>
+        <v>2.161992385307228</v>
       </c>
       <c r="F3">
-        <v>0.3656144205965373</v>
+        <v>2.107937406714976</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1098904018663597</v>
+        <v>0.2201423283843545</v>
       </c>
       <c r="C4">
-        <v>0.2824368076085529</v>
+        <v>1.112030744985122</v>
       </c>
       <c r="D4">
-        <v>0.1273013017406104</v>
+        <v>7.605937587058003</v>
       </c>
       <c r="E4">
-        <v>0.3567930797263457</v>
+        <v>2.757886434764492</v>
       </c>
       <c r="F4">
-        <v>0.3478313835526827</v>
+        <v>2.810871133758786</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0325328965656304</v>
+        <v>0.2501754929190889</v>
       </c>
       <c r="C5">
-        <v>0.2428801592263986</v>
+        <v>1.125383142428414</v>
       </c>
       <c r="D5">
-        <v>0.08899619181356792</v>
+        <v>7.653888439551237</v>
       </c>
       <c r="E5">
-        <v>0.2983222952002882</v>
+        <v>2.766566182029853</v>
       </c>
       <c r="F5">
-        <v>0.3042467877348358</v>
+        <v>2.817154554387687</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07522128658533693</v>
+        <v>0.3004374354251687</v>
       </c>
       <c r="C6">
-        <v>0.2678359888536521</v>
+        <v>1.183046795173429</v>
       </c>
       <c r="D6">
-        <v>0.1192928843907551</v>
+        <v>7.775752270546474</v>
       </c>
       <c r="E6">
-        <v>0.3453880200452168</v>
+        <v>2.788503589839266</v>
       </c>
       <c r="F6">
-        <v>0.3463346331599631</v>
+        <v>2.834577579661701</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02628598706572433</v>
+        <v>0.2656501924638524</v>
       </c>
       <c r="C7">
-        <v>0.2431904892130187</v>
+        <v>1.272698581772992</v>
       </c>
       <c r="D7">
-        <v>0.0933406381209692</v>
+        <v>7.926928235987235</v>
       </c>
       <c r="E7">
-        <v>0.3055170013615759</v>
+        <v>2.815480107546</v>
       </c>
       <c r="F7">
-        <v>0.3132086628365013</v>
+        <v>2.86591440951239</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05644726556593638</v>
+        <v>0.1735487773573387</v>
       </c>
       <c r="C8">
-        <v>0.2954772732059698</v>
+        <v>1.27905897888513</v>
       </c>
       <c r="D8">
-        <v>0.1339965475761727</v>
+        <v>7.992029374264993</v>
       </c>
       <c r="E8">
-        <v>0.3660553886724968</v>
+        <v>2.827017752732549</v>
       </c>
       <c r="F8">
-        <v>0.372808120415778</v>
+        <v>2.885102286758365</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01022712026789455</v>
+        <v>0.2219982892021358</v>
       </c>
       <c r="C9">
-        <v>0.2320341083620467</v>
+        <v>1.341063655789804</v>
       </c>
       <c r="D9">
-        <v>0.08898781252847607</v>
+        <v>8.0376137195044</v>
       </c>
       <c r="E9">
-        <v>0.2983082508555137</v>
+        <v>2.835068556402896</v>
       </c>
       <c r="F9">
-        <v>0.3079103220779316</v>
+        <v>2.889885189754726</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.03528151846837101</v>
+        <v>0.1895698287473124</v>
       </c>
       <c r="C10">
-        <v>0.3035841171280461</v>
+        <v>1.293626197483444</v>
       </c>
       <c r="D10">
-        <v>0.1375810296764911</v>
+        <v>8.015968031220561</v>
       </c>
       <c r="E10">
-        <v>0.3709191686560443</v>
+        <v>2.831248493371884</v>
       </c>
       <c r="F10">
-        <v>0.3821970006204594</v>
+        <v>2.88838363227864</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.02687308408883515</v>
+        <v>0.08322311406686993</v>
       </c>
       <c r="C11">
-        <v>0.2416292114959559</v>
+        <v>1.20051888709089</v>
       </c>
       <c r="D11">
-        <v>0.0923378630415834</v>
+        <v>7.697829717014696</v>
       </c>
       <c r="E11">
-        <v>0.303871458089738</v>
+        <v>2.77449629969382</v>
       </c>
       <c r="F11">
-        <v>0.3141067684113806</v>
+        <v>2.835575807300819</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_9_qoq_forecast_error_table_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1155809658704365</v>
+        <v>0.1275699870682362</v>
       </c>
       <c r="C2">
-        <v>0.390457646890028</v>
+        <v>0.2949975552939468</v>
       </c>
       <c r="D2">
-        <v>0.3755683084142444</v>
+        <v>0.150653331260784</v>
       </c>
       <c r="E2">
-        <v>0.612836281901002</v>
+        <v>0.3881408652290866</v>
       </c>
       <c r="F2">
-        <v>0.6153644530269748</v>
+        <v>0.3748164570332126</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6511545689434494</v>
+        <v>0.0924332518450889</v>
       </c>
       <c r="C3">
-        <v>0.8016979307476643</v>
+        <v>0.3674313087794084</v>
       </c>
       <c r="D3">
-        <v>4.674211074126436</v>
+        <v>0.3855150429668173</v>
       </c>
       <c r="E3">
-        <v>2.161992385307228</v>
+        <v>0.620898577037198</v>
       </c>
       <c r="F3">
-        <v>2.107937406714976</v>
+        <v>0.6277787736124477</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2201423283843545</v>
+        <v>0.6414105736191978</v>
       </c>
       <c r="C4">
-        <v>1.112030744985122</v>
+        <v>0.7989529440794614</v>
       </c>
       <c r="D4">
-        <v>7.605937587058003</v>
+        <v>4.695416189738523</v>
       </c>
       <c r="E4">
-        <v>2.757886434764492</v>
+        <v>2.166890903977061</v>
       </c>
       <c r="F4">
-        <v>2.810871133758786</v>
+        <v>2.116302514390309</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2501754929190889</v>
+        <v>0.2158879425535663</v>
       </c>
       <c r="C5">
-        <v>1.125383142428414</v>
+        <v>1.111983560722235</v>
       </c>
       <c r="D5">
-        <v>7.653888439551237</v>
+        <v>7.608038160243865</v>
       </c>
       <c r="E5">
-        <v>2.766566182029853</v>
+        <v>2.758267238728667</v>
       </c>
       <c r="F5">
-        <v>2.817154554387687</v>
+        <v>2.811606648419342</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3004374354251687</v>
+        <v>0.248349034037972</v>
       </c>
       <c r="C6">
-        <v>1.183046795173429</v>
+        <v>1.124424048567344</v>
       </c>
       <c r="D6">
-        <v>7.775752270546474</v>
+        <v>7.646948434845032</v>
       </c>
       <c r="E6">
-        <v>2.788503589839266</v>
+        <v>2.765311634309058</v>
       </c>
       <c r="F6">
-        <v>2.834577579661701</v>
+        <v>2.81603555487595</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2656501924638524</v>
+        <v>0.299637262814125</v>
       </c>
       <c r="C7">
-        <v>1.272698581772992</v>
+        <v>1.183108062718223</v>
       </c>
       <c r="D7">
-        <v>7.926928235987235</v>
+        <v>7.779390080635538</v>
       </c>
       <c r="E7">
-        <v>2.815480107546</v>
+        <v>2.789155800710232</v>
       </c>
       <c r="F7">
-        <v>2.86591440951239</v>
+        <v>2.835336877543529</v>
       </c>
       <c r="G7">
         <v>23</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1735487773573387</v>
+        <v>0.2652960715237629</v>
       </c>
       <c r="C8">
-        <v>1.27905897888513</v>
+        <v>1.272191104739367</v>
       </c>
       <c r="D8">
-        <v>7.992029374264993</v>
+        <v>7.927883031278751</v>
       </c>
       <c r="E8">
-        <v>2.827017752732549</v>
+        <v>2.815649664159011</v>
       </c>
       <c r="F8">
-        <v>2.885102286758365</v>
+        <v>2.866122845107168</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2219982892021358</v>
+        <v>0.1733904757308894</v>
       </c>
       <c r="C9">
-        <v>1.341063655789804</v>
+        <v>1.27878032370931</v>
       </c>
       <c r="D9">
-        <v>8.0376137195044</v>
+        <v>7.990910996653001</v>
       </c>
       <c r="E9">
-        <v>2.835068556402896</v>
+        <v>2.826819944151555</v>
       </c>
       <c r="F9">
-        <v>2.889885189754726</v>
+        <v>2.884909601627003</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1895698287473124</v>
+        <v>0.2219271402009887</v>
       </c>
       <c r="C10">
-        <v>1.293626197483444</v>
+        <v>1.341057205553475</v>
       </c>
       <c r="D10">
-        <v>8.015968031220561</v>
+        <v>8.037643935850472</v>
       </c>
       <c r="E10">
-        <v>2.831248493371884</v>
+        <v>2.835073885430585</v>
       </c>
       <c r="F10">
-        <v>2.88838363227864</v>
+        <v>2.889896368437108</v>
       </c>
       <c r="G10">
         <v>23</v>
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08322311406686993</v>
+        <v>0.1895377532140145</v>
       </c>
       <c r="C11">
-        <v>1.20051888709089</v>
+        <v>1.293575684359516</v>
       </c>
       <c r="D11">
-        <v>7.697829717014696</v>
+        <v>8.015790308611123</v>
       </c>
       <c r="E11">
-        <v>2.77449629969382</v>
+        <v>2.831217107289924</v>
       </c>
       <c r="F11">
-        <v>2.835575807300819</v>
+        <v>2.888353669326865</v>
       </c>
       <c r="G11">
         <v>23</v>
